--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_NgocKimAnh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2023\Thang3\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2023\Thang3\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -265,6 +265,60 @@
   </si>
   <si>
     <t>003200595C/ 00320004B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP21110052S00099 / 0032000FFF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP21120135S02481 / 003200204F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP21110069S00542 / 0032001483 </t>
+  </si>
+  <si>
+    <t>C43_V338_T210712.02</t>
+  </si>
+  <si>
+    <t>V3.3.21.5_R22090903</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi Camera mặt trước</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Thay cụm CAM mặt trước</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>Thiết bị sai cấu hình</t>
+  </si>
+  <si>
+    <t>Nạp lại cấu hình</t>
+  </si>
+  <si>
+    <t>V3.3.21.3_R21111601</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khay sim</t>
+  </si>
+  <si>
+    <t>Thay khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>125.212.204.91,21083</t>
   </si>
 </sst>
 </file>
@@ -274,7 +328,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,7 +402,14 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -475,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -618,9 +679,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,9 +706,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -687,9 +742,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -705,11 +757,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1062,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1072,11 +1142,11 @@
     <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="76" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="73" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
     <col min="7" max="7" width="17" style="19" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="56" customWidth="1"/>
     <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
     <col min="12" max="12" width="56" style="25" customWidth="1"/>
@@ -1095,46 +1165,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="51"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="20"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -1159,7 +1229,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="52"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -1176,514 +1246,596 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="84" t="s">
+      <c r="K4" s="90"/>
+      <c r="L4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="95"/>
+      <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="64">
         <v>44987</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="64">
         <v>44987</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="76"/>
+      <c r="G6" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67" t="s">
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="67" t="s">
+      <c r="M6" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="68"/>
-      <c r="O6" s="67" t="s">
+      <c r="N6" s="66"/>
+      <c r="O6" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="68" t="s">
+      <c r="P6" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="69" t="s">
+      <c r="Q6" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="63" t="s">
+      <c r="R6" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="70"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="79" t="s">
+      <c r="S6" s="68"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="65"/>
+      <c r="W6" s="63"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="64">
         <v>44987</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="64">
         <v>44987</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="37" t="s">
+      <c r="F7" s="76"/>
+      <c r="G7" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67" t="s">
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="67" t="s">
+      <c r="M7" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="67" t="s">
+      <c r="N7" s="66"/>
+      <c r="O7" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="68" t="s">
+      <c r="P7" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="69" t="s">
+      <c r="Q7" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="63" t="s">
+      <c r="R7" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="80"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="65"/>
+      <c r="W7" s="63"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="64">
         <v>44987</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="64">
         <v>44987</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="37" t="s">
+      <c r="F8" s="76"/>
+      <c r="G8" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="67" t="s">
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="67" t="s">
+      <c r="M8" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="68"/>
-      <c r="O8" s="67" t="s">
+      <c r="N8" s="66"/>
+      <c r="O8" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="P8" s="68" t="s">
+      <c r="P8" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="69" t="s">
+      <c r="Q8" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="63" t="s">
+      <c r="R8" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="80"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="65"/>
+      <c r="W8" s="63"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="80"/>
+      <c r="B9" s="64">
+        <v>45000</v>
+      </c>
+      <c r="C9" s="64">
+        <v>45005</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="66"/>
+      <c r="O9" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" s="68"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="65"/>
+      <c r="W9" s="63"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="80"/>
+      <c r="B10" s="64">
+        <v>45000</v>
+      </c>
+      <c r="C10" s="64">
+        <v>45005</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="66"/>
+      <c r="I10" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="66"/>
+      <c r="O10" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" s="68"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="65"/>
+      <c r="W10" s="63"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="80"/>
+      <c r="B11" s="64">
+        <v>45000</v>
+      </c>
+      <c r="C11" s="64">
+        <v>45005</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="61"/>
+      <c r="I11" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" s="66"/>
+      <c r="O11" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="68"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="65"/>
+      <c r="W11" s="63"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="79" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="65"/>
+      <c r="W12" s="63"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="80"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="65"/>
+      <c r="W13" s="63"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="80"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="65"/>
+      <c r="W14" s="63"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="3"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="68"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="65"/>
+      <c r="W15" s="63"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="3"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="68"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="65"/>
+      <c r="W16" s="63"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="62"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="50"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="54"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="1"/>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
@@ -1695,22 +1847,22 @@
       <c r="R17" s="37"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="65"/>
+      <c r="U17" s="63"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="65"/>
+      <c r="W17" s="63"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="66"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="8"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="37"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="54"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1730,14 +1882,14 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="66"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="8"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="48"/>
       <c r="G19" s="37"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="54"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1749,7 +1901,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="62" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1761,14 +1913,14 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="8"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="50"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="54"/>
+      <c r="I20" s="53"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1785,7 +1937,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1793,14 +1945,14 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="8"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="50"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="54"/>
+      <c r="I21" s="53"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1817,7 +1969,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1825,14 +1977,14 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="8"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="50"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="54"/>
+      <c r="I22" s="53"/>
       <c r="J22" s="9"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1849,7 +2001,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -1857,14 +2009,14 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="8"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="50"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="54"/>
+      <c r="I23" s="53"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -1884,14 +2036,14 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="8"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="50"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="54"/>
+      <c r="I24" s="53"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -1911,14 +2063,14 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="8"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="50"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="54"/>
+      <c r="I25" s="53"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -1930,7 +2082,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="64" t="s">
+      <c r="U25" s="62" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -1942,14 +2094,14 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="8"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="50"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="54"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -1974,14 +2126,14 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="8"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="50"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="54"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -2006,14 +2158,14 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="8"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="50"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="54"/>
+      <c r="I28" s="53"/>
       <c r="J28" s="1"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -2038,14 +2190,14 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="8"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="50"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="54"/>
+      <c r="I29" s="53"/>
       <c r="J29" s="1"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -2070,14 +2222,14 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="73"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="54"/>
+      <c r="I30" s="53"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2102,14 +2254,14 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="73"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="54"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2126,7 +2278,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2134,14 +2286,14 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="73"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="54"/>
+      <c r="I32" s="53"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2158,7 +2310,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -2166,14 +2318,14 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="59"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="73"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="54"/>
+      <c r="I33" s="53"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2198,14 +2350,14 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="59"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="73"/>
+      <c r="E34" s="70"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="54"/>
+      <c r="I34" s="53"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2230,14 +2382,14 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="59"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="73"/>
+      <c r="E35" s="70"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="54"/>
+      <c r="I35" s="53"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2254,7 +2406,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2262,14 +2414,14 @@
       <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="73"/>
+      <c r="E36" s="70"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="54"/>
+      <c r="I36" s="53"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2294,14 +2446,14 @@
       <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="59"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="73"/>
+      <c r="E37" s="70"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="54"/>
+      <c r="I37" s="53"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2318,7 +2470,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2326,14 +2478,14 @@
       <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="73"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="54"/>
+      <c r="I38" s="53"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2353,14 +2505,14 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="59"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="73"/>
+      <c r="E39" s="70"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="54"/>
+      <c r="I39" s="53"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2380,14 +2532,14 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="73"/>
+      <c r="E40" s="70"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="54"/>
+      <c r="I40" s="53"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2412,14 +2564,14 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="73"/>
+      <c r="E41" s="70"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="54"/>
+      <c r="I41" s="53"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2444,14 +2596,14 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="73"/>
+      <c r="E42" s="70"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="54"/>
+      <c r="I42" s="53"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2471,14 +2623,14 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="73"/>
+      <c r="E43" s="70"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="54"/>
+      <c r="I43" s="53"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2498,14 +2650,14 @@
       <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="59"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="73"/>
+      <c r="E44" s="70"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="54"/>
+      <c r="I44" s="53"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2534,14 +2686,14 @@
       <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="59"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="73"/>
+      <c r="E45" s="70"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="54"/>
+      <c r="I45" s="53"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2573,14 +2725,14 @@
       <c r="A46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="73"/>
+      <c r="E46" s="70"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="54"/>
+      <c r="I46" s="53"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2612,14 +2764,14 @@
       <c r="A47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" s="59"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="73"/>
+      <c r="E47" s="70"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="54"/>
+      <c r="I47" s="53"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2651,14 +2803,14 @@
       <c r="A48" s="3">
         <v>43</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="73"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="54"/>
+      <c r="I48" s="53"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2690,14 +2842,14 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="59"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="73"/>
+      <c r="E49" s="70"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="54"/>
+      <c r="I49" s="53"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2718,14 +2870,14 @@
       <c r="A50" s="28">
         <v>45</v>
       </c>
-      <c r="B50" s="60"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="29"/>
       <c r="D50" s="43"/>
-      <c r="E50" s="74"/>
+      <c r="E50" s="71"/>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
       <c r="H50" s="31"/>
-      <c r="I50" s="55"/>
+      <c r="I50" s="54"/>
       <c r="J50" s="31"/>
       <c r="K50" s="31"/>
       <c r="L50" s="31"/>
@@ -2746,14 +2898,14 @@
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="59"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="73"/>
+      <c r="E51" s="70"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="54"/>
+      <c r="I51" s="53"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2774,14 +2926,14 @@
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="61"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
-      <c r="E52" s="75"/>
+      <c r="E52" s="72"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
-      <c r="I52" s="56"/>
+      <c r="I52" s="55"/>
       <c r="J52" s="32"/>
       <c r="K52" s="33"/>
       <c r="L52" s="33"/>
@@ -2802,14 +2954,14 @@
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="61"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
-      <c r="E53" s="75"/>
+      <c r="E53" s="72"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
-      <c r="I53" s="56"/>
+      <c r="I53" s="55"/>
       <c r="J53" s="32"/>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
@@ -2830,14 +2982,14 @@
       <c r="A54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="61"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
-      <c r="E54" s="75"/>
+      <c r="E54" s="72"/>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
-      <c r="I54" s="56"/>
+      <c r="I54" s="55"/>
       <c r="J54" s="32"/>
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
@@ -2858,14 +3010,14 @@
       <c r="A55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="61"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
-      <c r="E55" s="75"/>
+      <c r="E55" s="72"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
-      <c r="I55" s="56"/>
+      <c r="I55" s="55"/>
       <c r="J55" s="32"/>
       <c r="K55" s="33"/>
       <c r="L55" s="33"/>
@@ -2955,43 +3107,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3036,58 +3188,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -3112,37 +3264,37 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="37"/>
       <c r="E6" s="38"/>
-      <c r="F6" s="49"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="1"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
@@ -3154,7 +3306,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3166,14 +3318,14 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="1"/>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
@@ -3185,7 +3337,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3195,14 +3347,14 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
-      <c r="F8" s="49"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="37"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="1"/>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
@@ -3214,7 +3366,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3224,14 +3376,14 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
-      <c r="F9" s="49"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="54"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="1"/>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
@@ -3243,7 +3395,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3253,14 +3405,14 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="37"/>
       <c r="E10" s="38"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="54"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="1"/>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
@@ -3272,7 +3424,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3286,10 +3438,10 @@
       <c r="C11" s="36"/>
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
-      <c r="F11" s="49"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="1"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
@@ -3301,7 +3453,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3315,10 +3467,10 @@
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
       <c r="E12" s="38"/>
-      <c r="F12" s="49"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="37"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="54"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="1"/>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
@@ -3330,7 +3482,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3361,7 +3513,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3390,7 +3542,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3419,7 +3571,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3448,7 +3600,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
